--- a/landraces_classification/checking_input_data/CIAT_data_counts.xlsx
+++ b/landraces_classification/checking_input_data/CIAT_data_counts.xlsx
@@ -149,7 +149,6 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -157,6 +156,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,7 +440,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -449,406 +451,406 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>23831</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
         <v>15475</v>
       </c>
-      <c r="C3" s="8">
-        <f>B3/B2</f>
+      <c r="C3" s="7">
+        <f>B3/$B$2</f>
         <v>0.64936427342537029</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>715</v>
       </c>
-      <c r="C4" s="8">
-        <f>B4/B2</f>
+      <c r="C4" s="7">
+        <f t="shared" ref="C4:C17" si="0">B4/$B$2</f>
         <v>3.000293735050984E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>7641</v>
       </c>
-      <c r="C5" s="5">
-        <f>B5/B2</f>
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
         <v>0.32063278922411986</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
         <v>7687</v>
       </c>
-      <c r="C6" s="1">
-        <f>B6/B2</f>
+      <c r="C6" s="8">
+        <f t="shared" si="0"/>
         <v>0.32256304813058623</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>9803</v>
       </c>
-      <c r="C7" s="8">
-        <f>B7/B2</f>
+      <c r="C7" s="7">
+        <f t="shared" si="0"/>
         <v>0.4113549578280391</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>15475</v>
       </c>
-      <c r="C8" s="8">
-        <f>B8/B2</f>
+      <c r="C8" s="7">
+        <f t="shared" si="0"/>
         <v>0.64936427342537029</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>15463</v>
       </c>
-      <c r="C9" s="8">
-        <f>B9/B2</f>
+      <c r="C9" s="7">
+        <f t="shared" si="0"/>
         <v>0.64886072762368341</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>15475</v>
       </c>
-      <c r="C10" s="8">
-        <f>B10/$B$2</f>
+      <c r="C10" s="7">
+        <f t="shared" si="0"/>
         <v>0.64936427342537029</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>15475</v>
       </c>
-      <c r="C11" s="8">
-        <f t="shared" ref="C11:C15" si="0">B11/$B$2</f>
+      <c r="C11" s="7">
+        <f t="shared" si="0"/>
         <v>0.64936427342537029</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>15299</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <f t="shared" si="0"/>
         <v>0.64197893500062941</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>15473</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <f t="shared" si="0"/>
         <v>0.64928034912508914</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>12545</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <f t="shared" si="0"/>
         <v>0.52641517351349087</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>12545</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <f t="shared" si="0"/>
         <v>0.52641517351349087</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>4196</v>
       </c>
-      <c r="C16" s="8">
-        <f>B16/B2</f>
+      <c r="C16" s="7">
+        <f t="shared" si="0"/>
         <v>0.17607318198984517</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>3510</v>
       </c>
-      <c r="C17" s="8">
-        <f>B17/B2</f>
+      <c r="C17" s="7">
+        <f t="shared" si="0"/>
         <v>0.14728714699341194</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>12545</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="7">
+      <c r="A21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="6">
         <v>12545</v>
       </c>
-      <c r="C21" s="8">
-        <f>B21/B20</f>
+      <c r="C21" s="7">
+        <f>B21/$B$20</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>0</v>
       </c>
-      <c r="C22" s="8">
-        <f>B22/B20</f>
+      <c r="C22" s="7">
+        <f t="shared" ref="C22:C35" si="1">B22/$B$20</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>0</v>
       </c>
-      <c r="C23" s="5">
-        <f>B23/B20</f>
+      <c r="C23" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B24">
         <v>7687</v>
       </c>
-      <c r="C24" s="1">
-        <f>B24/B20</f>
+      <c r="C24" s="8">
+        <f t="shared" si="1"/>
         <v>0.61275408529294539</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>7780</v>
       </c>
-      <c r="C25" s="8">
-        <f>B25/B20</f>
+      <c r="C25" s="7">
+        <f t="shared" si="1"/>
         <v>0.62016739736946991</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <v>12545</v>
       </c>
-      <c r="C26" s="8">
-        <f>B26/B20</f>
+      <c r="C26" s="7">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <v>12534</v>
       </c>
-      <c r="C27" s="8">
-        <f>B27/B20</f>
+      <c r="C27" s="7">
+        <f t="shared" si="1"/>
         <v>0.99912315663610995</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <v>12545</v>
       </c>
-      <c r="C28" s="8">
-        <f>B28/$B$2</f>
-        <v>0.52641517351349087</v>
+      <c r="C28" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <v>12545</v>
       </c>
-      <c r="C29" s="8">
-        <f t="shared" ref="C29:C33" si="1">B29/$B$2</f>
-        <v>0.52641517351349087</v>
+      <c r="C29" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <v>12392</v>
       </c>
-      <c r="C30" s="8">
-        <f t="shared" si="1"/>
-        <v>0.51999496454198313</v>
+      <c r="C30" s="7">
+        <f t="shared" si="1"/>
+        <v>0.987803905938621</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="6">
         <v>12543</v>
       </c>
-      <c r="C31" s="8">
-        <f t="shared" si="1"/>
-        <v>0.52633124921320973</v>
+      <c r="C31" s="7">
+        <f t="shared" si="1"/>
+        <v>0.99984057393383818</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="6">
         <v>12545</v>
       </c>
-      <c r="C32" s="8">
-        <f t="shared" si="1"/>
-        <v>0.52641517351349087</v>
+      <c r="C32" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="6">
         <v>12545</v>
       </c>
-      <c r="C33" s="8">
-        <f t="shared" si="1"/>
-        <v>0.52641517351349087</v>
+      <c r="C33" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="6">
         <v>3000</v>
       </c>
-      <c r="C34" s="8">
-        <f>B34/B20</f>
+      <c r="C34" s="7">
+        <f t="shared" si="1"/>
         <v>0.23913909924272619</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="6">
         <v>3000</v>
       </c>
-      <c r="C35" s="8">
-        <f>B35/B20</f>
+      <c r="C35" s="7">
+        <f t="shared" si="1"/>
         <v>0.23913909924272619</v>
       </c>
     </row>

--- a/landraces_classification/checking_input_data/CIAT_data_counts.xlsx
+++ b/landraces_classification/checking_input_data/CIAT_data_counts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
   <si>
     <t>Total number of accessions</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>LANDRACES: Filtered database with coordinates &amp; protein data</t>
+  </si>
+  <si>
+    <t>LANDRACES: Using a DEM to include new coordinates (excluding accessions above 3500 mts)</t>
+  </si>
+  <si>
+    <t>Accessions with coordinates for Genepool.protein</t>
   </si>
 </sst>
 </file>
@@ -438,19 +444,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="59.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="81.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -460,8 +469,17 @@
       <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -471,8 +489,17 @@
       <c r="C2" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>16079</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -483,8 +510,18 @@
         <f>B3/$B$2</f>
         <v>0.64936427342537029</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>15878</v>
+      </c>
+      <c r="G3" s="7">
+        <f>F3/$F$2</f>
+        <v>0.98749922258846945</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -495,8 +532,18 @@
         <f t="shared" ref="C4:C17" si="0">B4/$B$2</f>
         <v>3.000293735050984E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>30</v>
+      </c>
+      <c r="G4" s="7">
+        <f>F4/$F$2</f>
+        <v>1.8657876733627714E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -507,8 +554,18 @@
         <f t="shared" si="0"/>
         <v>0.32063278922411986</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>171</v>
+      </c>
+      <c r="G5" s="4">
+        <f>F5/$F$2</f>
+        <v>1.0634989738167797E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -519,8 +576,18 @@
         <f t="shared" si="0"/>
         <v>0.32256304813058623</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>12648</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" ref="G6:G17" si="1">F6/$F$2</f>
+        <v>0.7866160830897444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -531,8 +598,18 @@
         <f t="shared" si="0"/>
         <v>0.4113549578280391</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="6">
+        <v>15878</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="1"/>
+        <v>0.98749922258846945</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -543,8 +620,18 @@
         <f t="shared" si="0"/>
         <v>0.64936427342537029</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="6">
+        <v>15878</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="1"/>
+        <v>0.98749922258846945</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -555,8 +642,18 @@
         <f t="shared" si="0"/>
         <v>0.64886072762368341</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="6">
+        <v>15865</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="1"/>
+        <v>0.9866907145966789</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -567,8 +664,18 @@
         <f t="shared" si="0"/>
         <v>0.64936427342537029</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="6">
+        <v>15878</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="1"/>
+        <v>0.98749922258846945</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -579,8 +686,18 @@
         <f t="shared" si="0"/>
         <v>0.64936427342537029</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="6">
+        <v>15878</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="1"/>
+        <v>0.98749922258846945</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -591,8 +708,18 @@
         <f t="shared" si="0"/>
         <v>0.64197893500062941</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="6">
+        <v>15689</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="1"/>
+        <v>0.97574476024628398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -603,8 +730,18 @@
         <f t="shared" si="0"/>
         <v>0.64928034912508914</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="6">
+        <v>15876</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="1"/>
+        <v>0.98737483674357862</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -615,8 +752,18 @@
         <f t="shared" si="0"/>
         <v>0.52641517351349087</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="6">
+        <v>12826</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="1"/>
+        <v>0.79768642328503014</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -627,8 +774,18 @@
         <f t="shared" si="0"/>
         <v>0.52641517351349087</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="6">
+        <v>12826</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="1"/>
+        <v>0.79768642328503014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -639,8 +796,18 @@
         <f t="shared" si="0"/>
         <v>0.17607318198984517</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="6">
+        <v>3822</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.23770134958641706</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -651,8 +818,18 @@
         <f t="shared" si="0"/>
         <v>0.14728714699341194</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="6">
+        <v>3807</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.23676845574973568</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -663,7 +840,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>0</v>
       </c>
@@ -674,7 +851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
@@ -686,7 +863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -694,11 +871,11 @@
         <v>0</v>
       </c>
       <c r="C22" s="7">
-        <f t="shared" ref="C22:C35" si="1">B22/$B$20</f>
+        <f t="shared" ref="C22:C35" si="2">B22/$B$20</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
@@ -706,11 +883,11 @@
         <v>0</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -718,11 +895,11 @@
         <v>7687</v>
       </c>
       <c r="C24" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.61275408529294539</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -730,11 +907,11 @@
         <v>7780</v>
       </c>
       <c r="C25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.62016739736946991</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
@@ -742,11 +919,11 @@
         <v>12545</v>
       </c>
       <c r="C26" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>7</v>
       </c>
@@ -754,11 +931,11 @@
         <v>12534</v>
       </c>
       <c r="C27" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99912315663610995</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>8</v>
       </c>
@@ -766,11 +943,11 @@
         <v>12545</v>
       </c>
       <c r="C28" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>9</v>
       </c>
@@ -778,11 +955,11 @@
         <v>12545</v>
       </c>
       <c r="C29" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>10</v>
       </c>
@@ -790,11 +967,11 @@
         <v>12392</v>
       </c>
       <c r="C30" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.987803905938621</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>11</v>
       </c>
@@ -802,11 +979,11 @@
         <v>12543</v>
       </c>
       <c r="C31" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99984057393383818</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>12</v>
       </c>
@@ -814,7 +991,7 @@
         <v>12545</v>
       </c>
       <c r="C32" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -826,7 +1003,7 @@
         <v>12545</v>
       </c>
       <c r="C33" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -838,7 +1015,7 @@
         <v>3000</v>
       </c>
       <c r="C34" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.23913909924272619</v>
       </c>
     </row>
@@ -850,7 +1027,7 @@
         <v>3000</v>
       </c>
       <c r="C35" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.23913909924272619</v>
       </c>
     </row>
